--- a/Chapter 11/Audio Asset Tracking Sheet EXAMPLE.xlsx
+++ b/Chapter 11/Audio Asset Tracking Sheet EXAMPLE.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbolt\Desktop\Reaper\Elevate-your-audio-production-with-Reaper\Chapter 11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbolt\Documents\GitHub\Elevate-your-audio-production-with-Reaper\Chapter 11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D483CD6E-386A-45C6-B30E-9F114AD8BA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50D8BDF-5B37-402A-8207-506493BD05F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="28800" windowHeight="15370" xr2:uid="{D58FA421-E253-4084-844C-17AE215338B6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D58FA421-E253-4084-844C-17AE215338B6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ASSET LIST" sheetId="1" r:id="rId1"/>
+    <sheet name="Dropdown Sources" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,9 +36,116 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t>&lt;Project Title&gt;</t>
+  </si>
+  <si>
+    <t>Audio Asset Tracking</t>
+  </si>
+  <si>
+    <t>CONFIDENTIAL! DO NOT SHARE!</t>
+  </si>
+  <si>
+    <t>&lt;Your Name&gt;</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Asset Name</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>References / Inspo</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Recording</t>
+  </si>
+  <si>
+    <t>Drafting</t>
+  </si>
+  <si>
+    <t>Ready for Review</t>
+  </si>
+  <si>
+    <t>Iterating</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Waiting for Approal</t>
+  </si>
+  <si>
+    <t>Designing</t>
+  </si>
+  <si>
+    <t>&lt; Status Dropdown</t>
+  </si>
+  <si>
+    <t>(add or remove options from column).</t>
+  </si>
+  <si>
+    <t>Cinematics</t>
+  </si>
+  <si>
+    <t>&lt; Category Dropdown</t>
+  </si>
+  <si>
+    <t>(add or remove options from column)</t>
+  </si>
+  <si>
+    <t>Ambience-AMB</t>
+  </si>
+  <si>
+    <t>Foley-FOLY</t>
+  </si>
+  <si>
+    <t>Vehicles-VEH</t>
+  </si>
+  <si>
+    <t>Weapons-WEAP</t>
+  </si>
+  <si>
+    <t>Abilities_ABL</t>
+  </si>
+  <si>
+    <t>Voice-VOX</t>
+  </si>
+  <si>
+    <t>Rev 1</t>
+  </si>
+  <si>
+    <t>Rev 2</t>
+  </si>
+  <si>
+    <t>Rev 3</t>
+  </si>
+  <si>
+    <t>Rev 4</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,19 +153,130 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -66,13 +285,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -402,14 +668,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE8F6CCF-36E8-4105-976F-5E70D42EF823}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="70.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.77734375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="10" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="11" customFormat="1" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="D3" s="14"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Approval">
+      <formula>NOT(ISERROR(SEARCH("Approval",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Approval+'ASSET LIST'!$A$7">
+      <formula>NOT(ISERROR(SEARCH("Approval+'ASSET LIST'!$A$7",D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Asset Status" prompt="Select Asset Status / Staging" xr:uid="{7EC83479-8D6E-43AB-B44C-656D84995F2C}">
+          <x14:formula1>
+            <xm:f>'Dropdown Sources'!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Audio Asset Category" prompt="Select Category" xr:uid="{BE5F6B74-78B4-41D1-B76C-C800523739D6}">
+          <x14:formula1>
+            <xm:f>'Dropdown Sources'!$C:$C</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA3D107-9E79-4124-94BE-C596802C55ED}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.5546875" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Chapter 11/Audio Asset Tracking Sheet EXAMPLE.xlsx
+++ b/Chapter 11/Audio Asset Tracking Sheet EXAMPLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbolt\Documents\GitHub\Elevate-your-audio-production-with-Reaper\Chapter 11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50D8BDF-5B37-402A-8207-506493BD05F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0576751E-83A3-4869-9EC2-4D12F52EC619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D58FA421-E253-4084-844C-17AE215338B6}"/>
   </bookViews>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>&lt;Project Title&gt;</t>
   </si>
@@ -139,13 +137,16 @@
   </si>
   <si>
     <t>Rev 4</t>
+  </si>
+  <si>
+    <t>Variations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +199,13 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -285,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -295,22 +303,25 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,41 +679,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE8F6CCF-36E8-4105-976F-5E70D42EF823}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <selection pane="topRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="70.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.77734375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="3" width="20.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="40" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="70.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.77734375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="10" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="10" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="11" customFormat="1" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="11" customFormat="1" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
@@ -712,32 +723,35 @@
       <c r="C2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Approval">
-      <formula>NOT(ISERROR(SEARCH("Approval",D1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Approval",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
+  <conditionalFormatting sqref="E3">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Approval+'ASSET LIST'!$A$7">
-      <formula>NOT(ISERROR(SEARCH("Approval+'ASSET LIST'!$A$7",D3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Approval+'ASSET LIST'!$A$7",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -749,7 +763,7 @@
           <x14:formula1>
             <xm:f>'Dropdown Sources'!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>D3</xm:sqref>
+          <xm:sqref>E3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Audio Asset Category" prompt="Select Category" xr:uid="{BE5F6B74-78B4-41D1-B76C-C800523739D6}">
           <x14:formula1>

--- a/Chapter 11/Audio Asset Tracking Sheet EXAMPLE.xlsx
+++ b/Chapter 11/Audio Asset Tracking Sheet EXAMPLE.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbolt\Documents\GitHub\Elevate-your-audio-production-with-Reaper\Chapter 11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0576751E-83A3-4869-9EC2-4D12F52EC619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AFC483-E35B-4EB7-AF94-B91271C5AB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D58FA421-E253-4084-844C-17AE215338B6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>&lt;Project Title&gt;</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>File Name</t>
-  </si>
-  <si>
     <t>References / Inspo</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
     <t>Final</t>
   </si>
   <si>
-    <t>Waiting for Approal</t>
-  </si>
-  <si>
     <t>Designing</t>
   </si>
   <si>
@@ -140,6 +134,33 @@
   </si>
   <si>
     <t>Variations</t>
+  </si>
+  <si>
+    <t>Waiting for Approval</t>
+  </si>
+  <si>
+    <t>Serene woodlands with birds and insects.</t>
+  </si>
+  <si>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t>&lt; Loop</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Sx_Amb_EnchantedFrst_Day</t>
+  </si>
+  <si>
+    <t>Sx_Amb_EnchantedFrst_Night</t>
+  </si>
+  <si>
+    <t>Woodlands ambience at night. Spooky, insects, wolves.</t>
+  </si>
+  <si>
+    <t>Play_Ambience</t>
   </si>
 </sst>
 </file>
@@ -203,7 +224,7 @@
       <b/>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Bahnschrift Condensed"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -293,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -320,13 +341,410 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="37">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -679,21 +1097,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE8F6CCF-36E8-4105-976F-5E70D42EF823}">
-  <dimension ref="A1:H3"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B3" sqref="B3"/>
+      <selection pane="topRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" style="1" customWidth="1"/>
-    <col min="2" max="3" width="20.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="51" style="1" customWidth="1"/>
     <col min="8" max="8" width="70.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="23.77734375" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="1"/>
@@ -706,7 +1126,8 @@
       <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="D1" s="12"/>
+      <c r="G1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="13" t="s">
@@ -724,52 +1145,168 @@
         <v>6</v>
       </c>
       <c r="D2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="11" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="D5" s="17"/>
+      <c r="F5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="E3" s="14"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="D6" s="17"/>
+      <c r="F6" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="D7" s="17"/>
+      <c r="F7" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="D8" s="17"/>
+      <c r="F8" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="D9" s="17"/>
+      <c r="F9" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="D10" s="17"/>
+      <c r="F10" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="D11" s="17"/>
+      <c r="F11" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="D12" s="17"/>
+      <c r="F12" s="14" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Approval">
-      <formula>NOT(ISERROR(SEARCH("Approval",E1)))</formula>
+  <conditionalFormatting sqref="F3:F12">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Ready for Review">
+      <formula>NOT(ISERROR(SEARCH("Ready for Review",F3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Recording">
+      <formula>NOT(ISERROR(SEARCH("Recording",F3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Designing">
+      <formula>NOT(ISERROR(SEARCH("Designing",F3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Designing">
+      <formula>NOT(ISERROR(SEARCH("Designing",F3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Waiting for Approval">
+      <formula>NOT(ISERROR(SEARCH("Waiting for Approval",F3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="Final">
+      <formula>NOT(ISERROR(SEARCH("Final",F3)))</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="1" priority="8" operator="endsWith" text="Approval">
+      <formula>RIGHT(F3,LEN("Approval"))="Approval"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Approval+'ASSET LIST'!$A$7">
-      <formula>NOT(ISERROR(SEARCH("Approval+'ASSET LIST'!$A$7",E3)))</formula>
+  <conditionalFormatting sqref="D3:D12">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH("X",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Asset Status" prompt="Select Asset Status / Staging" xr:uid="{7EC83479-8D6E-43AB-B44C-656D84995F2C}">
           <x14:formula1>
             <xm:f>'Dropdown Sources'!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>E3</xm:sqref>
+          <xm:sqref>F3:F12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Audio Asset Category" prompt="Select Category" xr:uid="{BE5F6B74-78B4-41D1-B76C-C800523739D6}">
           <x14:formula1>
             <xm:f>'Dropdown Sources'!$C:$C</xm:f>
           </x14:formula1>
-          <xm:sqref>A3</xm:sqref>
+          <xm:sqref>A3:A12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Looping File" prompt="Select wether asset is seamless loop._x000a_" xr:uid="{1E87A1A5-FA70-425B-A242-022CA42AD54D}">
+          <x14:formula1>
+            <xm:f>'Dropdown Sources'!$E$1:$E$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:D12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -779,10 +1316,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA3D107-9E79-4124-94BE-C596802C55ED}">
-  <dimension ref="A1:D12"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -793,97 +1331,104 @@
     <col min="4" max="4" width="30.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Chapter 11/Audio Asset Tracking Sheet EXAMPLE.xlsx
+++ b/Chapter 11/Audio Asset Tracking Sheet EXAMPLE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbolt\Documents\GitHub\Elevate-your-audio-production-with-Reaper\Chapter 11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbolt\Desktop\Reaper\Elevate-your-audio-production-with-Reaper\Chapter 11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AFC483-E35B-4EB7-AF94-B91271C5AB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E73690-CAD0-4DB7-B323-B46057CFE8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D58FA421-E253-4084-844C-17AE215338B6}"/>
+    <workbookView xWindow="-27585" yWindow="16530" windowWidth="28800" windowHeight="15375" xr2:uid="{D58FA421-E253-4084-844C-17AE215338B6}"/>
   </bookViews>
   <sheets>
     <sheet name="ASSET LIST" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="82">
   <si>
     <t>&lt;Project Title&gt;</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Asset Name</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -145,22 +142,145 @@
     <t>Loop</t>
   </si>
   <si>
-    <t>&lt; Loop</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
-    <t>Sx_Amb_EnchantedFrst_Day</t>
-  </si>
-  <si>
-    <t>Sx_Amb_EnchantedFrst_Night</t>
-  </si>
-  <si>
     <t>Woodlands ambience at night. Spooky, insects, wolves.</t>
   </si>
   <si>
     <t>Play_Ambience</t>
+  </si>
+  <si>
+    <t>Area: Enchanted Forest</t>
+  </si>
+  <si>
+    <t>Sx_Amb_EnFrst_Day</t>
+  </si>
+  <si>
+    <t>Sx_Amb_EnFrst_Night</t>
+  </si>
+  <si>
+    <t>Sx_Amb_EnFrst_Bird_Nightingale</t>
+  </si>
+  <si>
+    <t>Sx_Amb_EnFrst_Bird_BarredOwl</t>
+  </si>
+  <si>
+    <t>Sx_Amb_EnFrst_Cricket_Isolated</t>
+  </si>
+  <si>
+    <t>Individual cricket chirps to be placed as random emitters.</t>
+  </si>
+  <si>
+    <t>Individual nightingale calls.</t>
+  </si>
+  <si>
+    <t>Individual barred owl calls.</t>
+  </si>
+  <si>
+    <t>Sx_Amb_EnFrst_WindGust</t>
+  </si>
+  <si>
+    <t>Individual wind gusts.</t>
+  </si>
+  <si>
+    <t>Sx_Amb_EnFrst_Creek_Small</t>
+  </si>
+  <si>
+    <t>Sx_Amb_EnFrst_Creek_Large</t>
+  </si>
+  <si>
+    <t>Small, babbling brook or creek.</t>
+  </si>
+  <si>
+    <t>Larger creek, not too noisy.</t>
+  </si>
+  <si>
+    <t>Sx_Amb_EnFrst_Pond_Lapping</t>
+  </si>
+  <si>
+    <t>Indiviidual sounds of water lapping on the shore.</t>
+  </si>
+  <si>
+    <t>Character: Hero - Tali</t>
+  </si>
+  <si>
+    <t>Player_Foot</t>
+  </si>
+  <si>
+    <t>Sx_Foly_Foot_Tali_DirtDry</t>
+  </si>
+  <si>
+    <t>Sx_Foly_Foot_Tali_DirtWet</t>
+  </si>
+  <si>
+    <t>Sx_Foly_Foot_Tali_Sand</t>
+  </si>
+  <si>
+    <t>Not too squelchy.</t>
+  </si>
+  <si>
+    <t>Non-gritty dirt, compacted.</t>
+  </si>
+  <si>
+    <t>Not too bright or gritty.</t>
+  </si>
+  <si>
+    <t>Sx_Foly_Foot_Tali_WoodIndoor</t>
+  </si>
+  <si>
+    <t>Weighty floorboards.</t>
+  </si>
+  <si>
+    <t>Spell_Heal</t>
+  </si>
+  <si>
+    <t>Soft, musical, chimes?</t>
+  </si>
+  <si>
+    <t>Soft musical loop to play while spell is ongoing.</t>
+  </si>
+  <si>
+    <t>Sx_Abl_Tali_HealSpell_End</t>
+  </si>
+  <si>
+    <t>Sx_Abl_Tali_HealSpell_Loop</t>
+  </si>
+  <si>
+    <t>Sx_Abl_Tali_HealSpell_Cast</t>
+  </si>
+  <si>
+    <t>Spell_Heal_End</t>
+  </si>
+  <si>
+    <t>Soft conclusion to spell.</t>
+  </si>
+  <si>
+    <t>&lt; Loop dropdown</t>
+  </si>
+  <si>
+    <t>Asset Name (.wav)</t>
+  </si>
+  <si>
+    <t>This is how it works! The category, location, or character sounds will be associated with go here!</t>
+  </si>
+  <si>
+    <t>This is the sound category</t>
+  </si>
+  <si>
+    <t>Name of the rendered file.</t>
+  </si>
+  <si>
+    <t>Engine/Middleware Event</t>
+  </si>
+  <si>
+    <t>Reference links, game / movie titles, etc.</t>
+  </si>
+  <si>
+    <t>Description of what it should sound like</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status </t>
   </si>
 </sst>
 </file>
@@ -196,19 +316,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="4"/>
       <name val="Bahnschrift"/>
@@ -227,8 +334,19 @@
       <name val="Bahnschrift Condensed"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,36 +361,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -280,6 +368,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,44 +408,183 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="118">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -427,17 +660,6 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -450,6 +672,18 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="5"/>
         </patternFill>
       </fill>
@@ -505,17 +739,6 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -524,39 +747,42 @@
       <font>
         <b/>
         <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill>
@@ -571,6 +797,63 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -579,6 +862,63 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -594,7 +934,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -616,6 +956,63 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -624,6 +1021,62 @@
       <font>
         <b/>
         <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -639,14 +1092,15 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill>
@@ -661,6 +1115,63 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -669,6 +1180,62 @@
       <font>
         <b/>
         <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -684,6 +1251,17 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -695,6 +1273,63 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -703,6 +1338,62 @@
       <font>
         <b/>
         <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -718,6 +1409,18 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -729,6 +1432,63 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -737,6 +1497,62 @@
       <font>
         <b/>
         <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -749,6 +1565,73 @@
       <font>
         <b/>
         <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -759,11 +1642,147 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1098,191 +2117,523 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE8F6CCF-36E8-4105-976F-5E70D42EF823}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G7" sqref="G7"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="11" customWidth="1"/>
+    <col min="6" max="6" width="30.08984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="51" style="1" customWidth="1"/>
-    <col min="8" max="8" width="70.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.77734375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="70.36328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.81640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="G1" s="10" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="14"/>
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="H2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11">
+        <v>10</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11">
+        <v>13</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11">
+        <v>8</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11">
+        <v>17</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="11">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11">
+        <v>20</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="G13" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="D14" s="10"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="16" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11">
+        <v>20</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11">
+        <v>18</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11">
+        <v>20</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="G19" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="14" t="s">
+      <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11">
+        <v>25</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="D5" s="17"/>
-      <c r="F5" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="D6" s="17"/>
-      <c r="F6" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="D7" s="17"/>
-      <c r="F7" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="D8" s="17"/>
-      <c r="F8" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="D9" s="17"/>
-      <c r="F9" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="D10" s="17"/>
-      <c r="F10" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="D11" s="17"/>
-      <c r="F11" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="D12" s="17"/>
-      <c r="F12" s="14" t="s">
-        <v>10</v>
+      <c r="G20" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11">
+        <v>5</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="11">
+        <v>1</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11">
+        <v>3</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="D24" s="10"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="26" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F3:F12">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Ready for Review">
-      <formula>NOT(ISERROR(SEARCH("Ready for Review",F3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Recording">
-      <formula>NOT(ISERROR(SEARCH("Recording",F3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Designing">
-      <formula>NOT(ISERROR(SEARCH("Designing",F3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Designing">
-      <formula>NOT(ISERROR(SEARCH("Designing",F3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Waiting for Approval">
-      <formula>NOT(ISERROR(SEARCH("Waiting for Approval",F3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="Final">
-      <formula>NOT(ISERROR(SEARCH("Final",F3)))</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="1" priority="8" operator="endsWith" text="Approval">
-      <formula>RIGHT(F3,LEN("Approval"))="Approval"</formula>
+  <mergeCells count="3">
+    <mergeCell ref="A4:XFD4"/>
+    <mergeCell ref="A16:XFD16"/>
+    <mergeCell ref="A26:XFD26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D5:D14">
+    <cfRule type="containsText" dxfId="33" priority="28" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH("X",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D12">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="X">
-      <formula>NOT(ISERROR(SEARCH("X",D3)))</formula>
+  <conditionalFormatting sqref="F5:F14">
+    <cfRule type="containsText" dxfId="32" priority="29" operator="containsText" text="Ready for Review">
+      <formula>NOT(ISERROR(SEARCH("Ready for Review",F5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="Recording">
+      <formula>NOT(ISERROR(SEARCH("Recording",F5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="Designing">
+      <formula>NOT(ISERROR(SEARCH("Designing",F5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="33" operator="containsText" text="Waiting for Approval">
+      <formula>NOT(ISERROR(SEARCH("Waiting for Approval",F5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="34" operator="containsText" text="Final">
+      <formula>NOT(ISERROR(SEARCH("Final",F5)))</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="27" priority="35" operator="endsWith" text="Iterating">
+      <formula>RIGHT(F5,LEN("Iterating"))="Iterating"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="containsText" dxfId="26" priority="21" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH("X",D17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="containsText" dxfId="19" priority="14" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH("X",D18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:D24">
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="X">
+      <formula>NOT(ISERROR(SEARCH("X",D19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:F24">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Ready for Review">
+      <formula>NOT(ISERROR(SEARCH("Ready for Review",F17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Recording">
+      <formula>NOT(ISERROR(SEARCH("Recording",F17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Designing">
+      <formula>NOT(ISERROR(SEARCH("Designing",F17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Waiting for Approval">
+      <formula>NOT(ISERROR(SEARCH("Waiting for Approval",F17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Final">
+      <formula>NOT(ISERROR(SEARCH("Final",F17)))</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="0" priority="6" operator="endsWith" text="Iterating">
+      <formula>RIGHT(F17,LEN("Iterating"))="Iterating"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1294,19 +2645,19 @@
           <x14:formula1>
             <xm:f>'Dropdown Sources'!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F12</xm:sqref>
+          <xm:sqref>F5:F14 F17:F24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Audio Asset Category" prompt="Select Category" xr:uid="{BE5F6B74-78B4-41D1-B76C-C800523739D6}">
           <x14:formula1>
             <xm:f>'Dropdown Sources'!$C:$C</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A12</xm:sqref>
+          <xm:sqref>A5:A14 A17:A24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Looping File" prompt="Select wether asset is seamless loop._x000a_" xr:uid="{1E87A1A5-FA70-425B-A242-022CA42AD54D}">
           <x14:formula1>
             <xm:f>'Dropdown Sources'!$E$1:$E$2</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D12</xm:sqref>
+          <xm:sqref>D5:D14 D17:D24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1317,119 +2668,122 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA3D107-9E79-4124-94BE-C596802C55ED}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="26.54296875" customWidth="1"/>
+    <col min="2" max="2" width="33.6328125" style="2" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="33.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
